--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.54058829113614</v>
+        <v>2.538334</v>
       </c>
       <c r="H2">
-        <v>1.54058829113614</v>
+        <v>7.615002</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.85014691039663</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N2">
-        <v>8.85014691039663</v>
+        <v>26.766925</v>
       </c>
       <c r="O2">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="P2">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="Q2">
-        <v>13.63443270499173</v>
+        <v>22.64779860098333</v>
       </c>
       <c r="R2">
-        <v>13.63443270499173</v>
+        <v>203.83018740885</v>
       </c>
       <c r="S2">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="T2">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.54058829113614</v>
+        <v>2.538334</v>
       </c>
       <c r="H3">
-        <v>1.54058829113614</v>
+        <v>7.615002</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.52881520606776</v>
+        <v>5.613253666666666</v>
       </c>
       <c r="N3">
-        <v>5.52881520606776</v>
+        <v>16.839761</v>
       </c>
       <c r="O3">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="P3">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="Q3">
-        <v>8.517627970323435</v>
+        <v>14.24831263272466</v>
       </c>
       <c r="R3">
-        <v>8.517627970323435</v>
+        <v>128.234813694522</v>
       </c>
       <c r="S3">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="T3">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
     </row>
   </sheetData>
